--- a/biology/Botanique/Cuscute_d'Europe/Cuscute_d'Europe.xlsx
+++ b/biology/Botanique/Cuscute_d'Europe/Cuscute_d'Europe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cuscute_d%27Europe</t>
+          <t>Cuscute_d'Europe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuscuta europaea
-La Cuscute d'Europe ou Grande Cuscute (Cuscuta europaea) est une espèce de plantes grimpantes parasites de la famille des Cuscutacées selon la classification classique de Cronquist (1981)[2], originaire d'Europe.
+La Cuscute d'Europe ou Grande Cuscute (Cuscuta europaea) est une espèce de plantes grimpantes parasites de la famille des Cuscutacées selon la classification classique de Cronquist (1981), originaire d'Europe.
 Les derniers travaux phylogénétiques incorporent maintenant le genre Cuscuta dans les Convolvulacées.
 La cuscute est notamment parasite de la luzerne, de l'ortie dioïque.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cuscute_d%27Europe</t>
+          <t>Cuscute_d'Europe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cuscuta europaea est indigène en Europe et présente dans tous les pays européens y compris la Russie et ses territoires de Sibérie et de l'Extrême-Orient russe. On la rencontre également ailleurs dans une grande partie de l'Asie (Turquie, Jordanie, Afghanistan, Iran, Inde, Pakistan, Mongolie, Chine, Japon), en Afrique du Nord (Algérie), en Amérique du Nord (États-Unis) et en Nouvelle-Zélande[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuscuta europaea est indigène en Europe et présente dans tous les pays européens y compris la Russie et ses territoires de Sibérie et de l'Extrême-Orient russe. On la rencontre également ailleurs dans une grande partie de l'Asie (Turquie, Jordanie, Afghanistan, Iran, Inde, Pakistan, Mongolie, Chine, Japon), en Afrique du Nord (Algérie), en Amérique du Nord (États-Unis) et en Nouvelle-Zélande,.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cuscute_d%27Europe</t>
+          <t>Cuscute_d'Europe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Catalogue of Life                                   (17 octobre 2014)[5] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (17 octobre 2014) :
 Cassytha major S. F. Gray ;
 Cuscuta aggregata Roxb. ;
 Cuscuta brachystyla C. Koch ;
@@ -573,8 +592,43 @@
 Cuscuta viciae F. Schultz ex Des Moul. ;
 Cuscuta vulgaris Gaterau ;
 Cuscuta vulgaris Pers.
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (17 octobre 2014)[6] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cuscute_d'Europe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuscute_d%27Europe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (17 octobre 2014) (Attention liste brute contenant possiblement des synonymes) :
 Cuscuta europaea subsp. halophyta (Fr.) Hartm.
 Cuscuta europaea var. conocarpa Engelm.
 Cuscuta europaea var. epithymum L.
@@ -583,34 +637,36 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cuscute_d%27Europe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cuscute_d'Europe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cuscute_d%27Europe</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La gamme de plantes hôtes de Cuscuta europaea est relativement vaste, ce parasite ayant une faible spécifité d'hôte, mais est assez mal documentée. Les familles les plus touchées seraient les Asteraceae, Fabaceae et les Chenopodiaceae. La grande ortie (Urtica dioica) est un hôte particulièrememt favorisé.
-Parmi les plantes cultivées, la betterave sucrière, l'oignon, le houblon et la luzerne sont particulièrement affectées[3]. Les fleurs de cuscutes se propagent en émettent un grand nombre de graines minuscules qui germent les années suivantes.
+Parmi les plantes cultivées, la betterave sucrière, l'oignon, le houblon et la luzerne sont particulièrement affectées. Les fleurs de cuscutes se propagent en émettent un grand nombre de graines minuscules qui germent les années suivantes.
 </t>
         </is>
       </c>
